--- a/tests/models/features/inverse/sets.xlsx
+++ b/tests/models/features/inverse/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\fixtures\inverse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\inverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3A5089-50F8-483C-B287-08B8B751BAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6463C8-CF9C-452F-ADD2-B6295D5593CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_CASES" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>c_Name</t>
-  </si>
-  <si>
-    <t>p_Name</t>
-  </si>
-  <si>
-    <t>t_Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>cases_Name</t>
+  </si>
+  <si>
+    <t>products_Name</t>
+  </si>
+  <si>
+    <t>products_Aggregation</t>
+  </si>
+  <si>
+    <t>technologies_Name</t>
+  </si>
+  <si>
+    <t>technologies_Aggregation</t>
   </si>
   <si>
     <t>reference</t>
@@ -417,7 +423,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,7 +435,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -439,30 +445,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -472,32 +483,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
